--- a/sriramModel-nelson-melancholic-patientID_17-sims-crh-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-crh-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.193069812453809</v>
+        <v>1.227647668788358</v>
       </c>
       <c r="C2">
-        <v>1.205814298830421</v>
+        <v>1.16948637129767</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.139070650191809</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.216500219938577</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.194380411125328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.385519749333684</v>
+        <v>1.452997283864973</v>
       </c>
       <c r="C3">
-        <v>1.410009480231101</v>
+        <v>1.338000817812278</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.276402965834197</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.431243952597379</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.388029285874661</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.57739039311293</v>
+        <v>1.676244158688246</v>
       </c>
       <c r="C4">
-        <v>1.612652246114215</v>
+        <v>1.505572048321775</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.412107307161322</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.64432412613525</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.580991747038012</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.768717434785273</v>
+        <v>1.897555754809727</v>
       </c>
       <c r="C5">
-        <v>1.813804592624328</v>
+        <v>1.672226066691585</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.54628196410151</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.855823950662023</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.773307649077085</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.959532287592835</v>
+        <v>2.117076656616142</v>
       </c>
       <c r="C6">
-        <v>2.013524251428775</v>
+        <v>1.837986307921987</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.679015076584572</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.065818185839349</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.965012316484036</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.149862579587214</v>
+        <v>2.334932054676549</v>
       </c>
       <c r="C7">
-        <v>2.211865067484548</v>
+        <v>2.002873671167981</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.810385944843425</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.274374310057091</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.1561369887042</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.339732544842436</v>
+        <v>2.551230231018282</v>
       </c>
       <c r="C8">
-        <v>2.408877332775019</v>
+        <v>2.166906523621486</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.940465952353154</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.48155313860786</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.34670930535706</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.529163332591069</v>
+        <v>2.766065404680501</v>
       </c>
       <c r="C9">
-        <v>2.604608086709975</v>
+        <v>2.330100697099285</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.069319563928819</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.687409522690755</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.536753555329375</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.718173245206998</v>
+        <v>2.979519188143366</v>
       </c>
       <c r="C10">
-        <v>2.799101376564293</v>
+        <v>2.49246948653683</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.19700500558164</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.891992970043128</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.726290881231307</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.906777915191352</v>
+        <v>3.191661875994514</v>
       </c>
       <c r="C11">
-        <v>2.992398487912704</v>
+        <v>2.654023635779999</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.323574894656062</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.09534813682964</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.91533941838882</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.094990427326699</v>
+        <v>3.402553679734864</v>
       </c>
       <c r="C12">
-        <v>3.184538152087711</v>
+        <v>2.814771305320374</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.449076726389013</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.297515233338093</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3.10391430425576</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.282821390985118</v>
+        <v>3.612245663267865</v>
       </c>
       <c r="C13">
-        <v>3.375556725696526</v>
+        <v>2.974718021408156</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.573553297299535</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.498530363022946</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3.292027625014873</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.470278965475348</v>
+        <v>3.820780436525666</v>
       </c>
       <c r="C14">
-        <v>3.565488348595955</v>
+        <v>3.133866607043803</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.69704306452415</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.698425837787201</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3.479688282134487</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.657368839812098</v>
+        <v>4.028192631036113</v>
       </c>
       <c r="C15">
-        <v>3.754365082418648</v>
+        <v>3.292217092113175</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.81958041017491</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3.897230422606292</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3.666901760561243</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.844094167259336</v>
+        <v>4.2345092401294</v>
       </c>
       <c r="C16">
-        <v>3.942217031421579</v>
+        <v>3.449766598437119</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.941195858577478</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4.094969521374497</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3.853669785613873</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.030455453660151</v>
+        <v>4.439749855386626</v>
       </c>
       <c r="C17">
-        <v>4.129072443121789</v>
+        <v>3.606509195524485</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3.061916217021974</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4.291665330191569</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4.039989867458632</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.216450397423166</v>
+        <v>4.643926779131306</v>
       </c>
       <c r="C18">
-        <v>4.314957792464488</v>
+        <v>3.762435722945677</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3.18176469958979</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4.487336927771429</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4.22585471942576</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.402073678237834</v>
+        <v>4.847044996916817</v>
       </c>
       <c r="C19">
-        <v>4.499897848601977</v>
+        <v>3.917533575009052</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3.300760991046833</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4.682000336894053</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>4.411251517681512</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.587316690273943</v>
+        <v>5.049102021098802</v>
       </c>
       <c r="C20">
-        <v>4.683915723445333</v>
+        <v>4.07178644299829</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3.418921238523918</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4.875668556527443</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>4.596160993778491</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.772167214701083</v>
+        <v>5.250087616487333</v>
       </c>
       <c r="C21">
-        <v>4.867032901798536</v>
+        <v>4.225174009825002</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3.536257985359623</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>5.068351554505306</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4.780556332387357</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.956609025568844</v>
+        <v>5.449983404883311</v>
       </c>
       <c r="C22">
-        <v>5.049269250668928</v>
+        <v>4.377671591610004</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.652780056473457</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5.260056175393833</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4.964401834429887</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.140621421587031</v>
+        <v>5.648762336243776</v>
       </c>
       <c r="C23">
-        <v>5.230643006910872</v>
+        <v>4.529249720395626</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3.768492392637129</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>5.450786021575241</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5.147651339027788</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.324178675812546</v>
+        <v>5.846388017049712</v>
       </c>
       <c r="C24">
-        <v>5.411170738060251</v>
+        <v>4.679873660267838</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3.883395820132055</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>5.640541293754259</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5.33024634280216</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.507249394304523</v>
+        <v>6.04281388685096</v>
       </c>
       <c r="C25">
-        <v>5.59086727485041</v>
+        <v>4.82950291413626</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3.997486744803283</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>5.829318578718294</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5.512113800051324</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5.689795773604698</v>
+        <v>6.237982233625941</v>
       </c>
       <c r="C26">
-        <v>5.769745606507611</v>
+        <v>4.978090439285821</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4.110756765863629</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>6.017110575620153</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>5.693163581476472</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5.87177274693724</v>
+        <v>6.4318230353149</v>
       </c>
       <c r="C27">
-        <v>5.947816735576675</v>
+        <v>5.125581993219023</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4.22319220283527</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>6.203905772443999</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>5.87328553701467</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6.053127008605055</v>
+        <v>6.624252613968878</v>
       </c>
       <c r="C28">
-        <v>6.125089477990784</v>
+        <v>5.271915532467802</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4.334773523758189</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>6.389688020236315</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>6.052346184283562</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.233795906071752</v>
+        <v>6.815172089982795</v>
       </c>
       <c r="C29">
-        <v>6.301570200696421</v>
+        <v>5.417020054352778</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4.445474667283879</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>6.574436045742719</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>6.230185011423401</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6.413706191100848</v>
+        <v>7.004465628531495</v>
       </c>
       <c r="C30">
-        <v>6.477262478142991</v>
+        <v>5.560814599046918</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4.555262239580055</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>6.758122868560361</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>6.406610425721561</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6.592772622919145</v>
+        <v>7.191998473143708</v>
       </c>
       <c r="C31">
-        <v>6.652166640168663</v>
+        <v>5.703207295182334</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4.664094573201623</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6.940715111695896</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>6.581395462873353</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6.770896420197541</v>
+        <v>7.377614764257322</v>
       </c>
       <c r="C32">
-        <v>6.826279198112212</v>
+        <v>5.844094122904403</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4.771920633933918</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>7.122172186316117</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>6.754273362722872</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.947963565063894</v>
+        <v>7.561135160971496</v>
       </c>
       <c r="C33">
-        <v>6.999592098934101</v>
+        <v>5.983357558234622</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>4.878678761134096</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>7.302445345210237</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>6.924933274899417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7.123842969574024</v>
+        <v>7.74235429126549</v>
       </c>
       <c r="C34">
-        <v>7.172091762109812</v>
+        <v>6.120865205794102</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>4.984295227990972</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>7.481476573498208</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>7.093016400878867</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7.298384527677257</v>
+        <v>7.921038082053084</v>
       </c>
       <c r="C35">
-        <v>7.343757838978948</v>
+        <v>6.256468385521268</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>5.088682611285119</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>7.659197272530885</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>7.258113064168377</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7.471417091028194</v>
+        <v>8.096921049464179</v>
       </c>
       <c r="C36">
-        <v>7.514561606570545</v>
+        <v>6.390000674191143</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>5.19173796613999</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>7.835526754207567</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>7.419761243519931</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7.642746426937002</v>
+        <v>8.269703668257414</v>
       </c>
       <c r="C37">
-        <v>7.684463888581241</v>
+        <v>6.521276416381252</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>5.293340810647156</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>8.010370485475207</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>7.577447309316928</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7.812153242961513</v>
+        <v>8.439049990032185</v>
       </c>
       <c r="C38">
-        <v>7.853412354903083</v>
+        <v>6.650089296929455</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>5.393350939346336</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>8.183618058523303</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>7.730609834556701</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7.979391392594231</v>
+        <v>8.604585733285333</v>
       </c>
       <c r="C39">
-        <v>8.02133800736747</v>
+        <v>6.776211131492498</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>5.49160610495104</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>8.355140839686815</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>7.87864702916363</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>8.144186413304237</v>
+        <v>8.765897142616561</v>
       </c>
       <c r="C40">
-        <v>8.188150624155751</v>
+        <v>6.899390928519479</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>5.587919636198624</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>8.524789341129333</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>8.020928842376756</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.306234585732994</v>
+        <v>8.922530981068938</v>
       </c>
       <c r="C41">
-        <v>8.353732827328544</v>
+        <v>7.019354318240064</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>5.682078099376461</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>8.692390143322113</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>8.156813839606357</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.465202741940509</v>
+        <v>9.07399599173737</v>
       </c>
       <c r="C42">
-        <v>8.517932403539842</v>
+        <v>7.135803538979738</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>5.773839157458058</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>8.857742478004196</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>8.285670727965684</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8.620729086794913</v>
+        <v>9.219766595832352</v>
       </c>
       <c r="C43">
-        <v>8.680552406483145</v>
+        <v>7.248418197018457</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>5.862929832524869</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>9.020614444205824</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>8.406904047704293</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>8.772425312444065</v>
+        <v>9.35928930882586</v>
       </c>
       <c r="C44">
-        <v>8.84133852369067</v>
+        <v>7.356856958279476</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>5.949045352685144</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>9.180738876320218</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>8.519981989715816</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>8.919880288877904</v>
+        <v>9.491991457858516</v>
       </c>
       <c r="C45">
-        <v>8.999963187511639</v>
+        <v>7.460760590728144</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>6.031849440407994</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>9.337808954573285</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>8.624464420406985</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.062665595557956</v>
+        <v>9.617293803485902</v>
       </c>
       <c r="C46">
-        <v>9.15600604402508</v>
+        <v>7.559756555109404</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>6.110975688745273</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>9.491473721097686</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>8.720027971182619</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.200343032482659</v>
+        <v>9.734626478319665</v>
       </c>
       <c r="C47">
-        <v>9.308930768086322</v>
+        <v>7.653464852853933</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>6.186030931510432</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>9.64133374429831</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>8.806485615560561</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9.332474188523966</v>
+        <v>9.843447987704156</v>
       </c>
       <c r="C48">
-        <v>9.458059028491682</v>
+        <v>7.741506042671902</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>6.256601165894381</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>9.786937256733269</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>8.883798106945026</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9.458631908988494</v>
+        <v>9.943266669771898</v>
       </c>
       <c r="C49">
-        <v>9.60254384788891</v>
+        <v>7.823511185033909</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>6.322260296019685</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>9.927777264406998</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>8.9520751001336</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.578413303719802</v>
+        <v>10.03366337999578</v>
       </c>
       <c r="C50">
-        <v>9.741346936563296</v>
+        <v>7.899133430234893</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>6.382581791686678</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>10.06329095458713</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>9.011567630368948</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>9.691453681403543</v>
+        <v>10.11431372369115</v>
       </c>
       <c r="C51">
-        <v>9.873227702663105</v>
+        <v>7.968061230134801</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>6.437153444170787</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10.19286199398861</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>9.062651534461805</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.797440567140637</v>
+        <v>10.18500908456349</v>
       </c>
       <c r="C52">
-        <v>9.996755073955235</v>
+        <v>8.03003266160176</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>6.485595892949862</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>10.31582605518241</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>9.105805132104493</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>10.93296926852319</v>
+        <v>11.24301829666605</v>
       </c>
       <c r="C53">
-        <v>11.59484756051948</v>
+        <v>8.872955268260434</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>7.368843988642271</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>11.90625971200244</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>9.645271125087543</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>11.99373841069384</v>
+        <v>12.20073928130554</v>
       </c>
       <c r="C54">
-        <v>13.07658827698875</v>
+        <v>9.642512419033075</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>8.183744723001549</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>13.41584352536471</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>10.11677128040785</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12.97891280557974</v>
+        <v>13.06023974807456</v>
       </c>
       <c r="C55">
-        <v>14.42701511791361</v>
+        <v>10.338465266747</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>8.92875347722878</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>14.8376878280152</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>10.52653810034713</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>13.8885171315392</v>
+        <v>13.82484967401864</v>
       </c>
       <c r="C56">
-        <v>15.63378167897062</v>
+        <v>10.96150544291647</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>9.603216053680994</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>16.16517615122779</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>10.88079340988769</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>14.72343943578992</v>
+        <v>14.49903328302318</v>
       </c>
       <c r="C57">
-        <v>16.68898511445925</v>
+        <v>11.51330278522854</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>10.20747660190714</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>17.39237216582608</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>11.18557258109298</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>15.48539361516579</v>
+        <v>15.0882000861837</v>
       </c>
       <c r="C58">
-        <v>17.59051528824729</v>
+        <v>11.99649854990041</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>10.74291708053013</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>18.51446230910516</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>11.44659158840535</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>16.17684512494898</v>
+        <v>15.59847138243482</v>
       </c>
       <c r="C59">
-        <v>18.34251105970369</v>
+        <v>12.41464000780284</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>11.21192090364782</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>19.52819143903469</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>11.66915935196486</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>16.80090708654799</v>
+        <v>16.0364332973484</v>
       </c>
       <c r="C60">
-        <v>18.95477277455641</v>
+        <v>12.77205680862636</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>11.61777039131167</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>20.4322309912312</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>11.85812756610788</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>17.36121597766994</v>
+        <v>16.40889129549737</v>
       </c>
       <c r="C61">
-        <v>19.44132814339711</v>
+        <v>13.07369047296569</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>11.96449076301741</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>21.22742570495632</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>12.01787144295935</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>17.86179691906715</v>
+        <v>16.72264813431026</v>
       </c>
       <c r="C62">
-        <v>19.81859247513544</v>
+        <v>13.32488523235292</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>12.25665895620813</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>21.91686176744734</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>12.15229043638404</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>18.30692817813679</v>
+        <v>16.98431627400445</v>
       </c>
       <c r="C63">
-        <v>20.10359443762469</v>
+        <v>13.53116909866944</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>12.49919836532498</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>22.50573365632856</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>12.26483076549886</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>18.70101316061078</v>
+        <v>17.20017195806511</v>
       </c>
       <c r="C64">
-        <v>20.31259119036423</v>
+        <v>13.69804174424142</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>12.69717902784663</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>23.00102149357868</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>12.35851452957767</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>19.04846612774079</v>
+        <v>17.37605174402007</v>
       </c>
       <c r="C65">
-        <v>20.46019157321503</v>
+        <v>13.83078901138688</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>12.85563897323182</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>23.41102695934153</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>12.43597467782057</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>19.35361563062492</v>
+        <v>17.51728888663334</v>
       </c>
       <c r="C66">
-        <v>20.55894539263043</v>
+        <v>13.93433905857547</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>12.97943709413769</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>23.74483999123782</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>12.49949468930548</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>19.62062749420829</v>
+        <v>17.62868376934802</v>
       </c>
       <c r="C67">
-        <v>20.61927786016345</v>
+        <v>14.01316524509851</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>13.07314218787076</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>24.01181207960353</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>12.55104669129787</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>19.8534473621223</v>
+        <v>17.7145017730646</v>
       </c>
       <c r="C68">
-        <v>20.64963672070702</v>
+        <v>14.07123536642085</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>13.14095820399741</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>24.22109857685523</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>12.59232866817397</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>20.05576145407891</v>
+        <v>17.77849144319375</v>
       </c>
       <c r="C69">
-        <v>20.65674413222832</v>
+        <v>14.11200031171129</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>13.18668211514925</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>24.3813081813849</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>12.62479913614244</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20.23097331257107</v>
+        <v>17.82391662343434</v>
       </c>
       <c r="C70">
-        <v>20.6458799744171</v>
+        <v>14.13841275047781</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>13.21368898700756</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>24.50027130590617</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>12.64970861302488</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20.3821938718728</v>
+        <v>17.85359676576434</v>
       </c>
       <c r="C71">
-        <v>20.62115387678309</v>
+        <v>14.15296582545938</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>13.22493796370613</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>24.58491893177293</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>12.66812795333382</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>20.51224208373338</v>
+        <v>17.86995172117376</v>
       </c>
       <c r="C72">
-        <v>20.58574535834779</v>
+        <v>14.15774280323701</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>13.2229931703983</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>24.64125080082239</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>12.68097339557379</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>20.62365347860876</v>
+        <v>17.87504744964989</v>
       </c>
       <c r="C73">
-        <v>20.5421052144383</v>
+        <v>14.15447059621103</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>13.21005408715761</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>24.67436780320136</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>12.68902852598264</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>20.71869433351299</v>
+        <v>17.8706399009362</v>
       </c>
       <c r="C74">
-        <v>20.49211886552216</v>
+        <v>14.14457247746103</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>13.18799103059433</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>24.68854468350708</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>12.69296339568829</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>20.79937948262958</v>
+        <v>17.85821643005719</v>
       </c>
       <c r="C75">
-        <v>20.4372359204369</v>
+        <v>14.1292169793717</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>13.15838298804313</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>24.68732347262072</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>12.69335104134611</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>20.86749218805192</v>
+        <v>17.83903352120683</v>
       </c>
       <c r="C76">
-        <v>20.37857139411718</v>
+        <v>14.10936106652069</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>13.12255461162195</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>24.67361331686205</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>12.69068164817159</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20.92460484773429</v>
+        <v>17.81415047086962</v>
       </c>
       <c r="C77">
-        <v>20.31698397689683</v>
+        <v>14.0857876349817</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>13.08161126554758</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>24.64978824254605</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>12.68537483791027</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>20.9720996390319</v>
+        <v>17.78445909498922</v>
       </c>
       <c r="C78">
-        <v>20.25313615269904</v>
+        <v>14.05913710057541</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>13.03647131506391</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>24.61777621748107</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>12.67779017418485</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21.01118845986481</v>
+        <v>17.75070949823012</v>
       </c>
       <c r="C79">
-        <v>20.18754018061086</v>
+        <v>14.02993379651769</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>12.98789495975506</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>24.57913776814251</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>12.66823586938591</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>21.04293174784895</v>
+        <v>17.71353232873594</v>
       </c>
       <c r="C80">
-        <v>20.12059318689451</v>
+        <v>13.99860760430595</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>12.93650961558638</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>24.53513342268809</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>12.65697632150842</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>21.06825593016747</v>
+        <v>17.67345774456801</v>
       </c>
       <c r="C81">
-        <v>20.05260392062047</v>
+        <v>13.96551169227645</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>12.88283187719761</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>24.48678029042451</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>12.64423869330796</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>21.08796937469672</v>
+        <v>17.63093153223403</v>
       </c>
       <c r="C82">
-        <v>19.98381313932988</v>
+        <v>13.9309369213326</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>12.82728632079906</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>24.43489888427351</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>12.63021837527791</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>21.10277681409116</v>
+        <v>17.586328753547</v>
       </c>
       <c r="C83">
-        <v>19.91440918039776</v>
+        <v>13.89512346327908</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>12.77022145318214</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>24.38015137865034</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>12.61508360463067</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>21.11329226829729</v>
+        <v>17.5399651889442</v>
       </c>
       <c r="C84">
-        <v>19.84453985394981</v>
+        <v>13.85827026556648</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>12.71192307671849</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>24.32307266421144</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>12.59897940299282</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>21.12005054018741</v>
+        <v>17.49210609637264</v>
       </c>
       <c r="C85">
-        <v>19.77432153336796</v>
+        <v>13.82054231144785</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>12.65262517268522</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>24.26409490332306</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>12.58203043767577</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>21.1004905749822</v>
+        <v>17.43530750990583</v>
       </c>
       <c r="C86">
-        <v>19.70233055648558</v>
+        <v>13.77662068690674</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>12.58842520779198</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>24.19606220425375</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>12.55901638597706</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>21.08064989281164</v>
+        <v>17.37843550839321</v>
       </c>
       <c r="C87">
-        <v>19.63042823386856</v>
+        <v>13.73270494890082</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>12.52424614732218</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>24.12796936517629</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>12.53595748679803</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>21.06056384306889</v>
+        <v>17.32150888652573</v>
       </c>
       <c r="C88">
-        <v>19.5586204925517</v>
+        <v>13.68880443853713</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>12.46010258842501</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>24.05984084519496</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>12.51286159041565</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>21.04026322696405</v>
+        <v>17.26454135642208</v>
       </c>
       <c r="C89">
-        <v>19.48691209602226</v>
+        <v>13.6449273844437</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>12.39600537037573</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>23.99169557280273</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>12.48973575873637</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>21.01977489796371</v>
+        <v>17.20754463756266</v>
       </c>
       <c r="C90">
-        <v>19.4153068869912</v>
+        <v>13.60108076450507</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>12.33196365490956</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>23.92354911618179</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>12.46658609802476</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>20.99912229085031</v>
+        <v>17.15052874103912</v>
       </c>
       <c r="C91">
-        <v>19.343807980158</v>
+        <v>13.55727044800898</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>12.26798498239384</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>23.85541419622937</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>12.44341798186655</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>20.97832586695433</v>
+        <v>17.09350213043052</v>
       </c>
       <c r="C92">
-        <v>19.27241791628686</v>
+        <v>13.51350145847993</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>12.20407560998367</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>23.78730124655974</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>12.4202360743699</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>20.95740350603929</v>
+        <v>17.03647206403252</v>
       </c>
       <c r="C93">
-        <v>19.20113877645928</v>
+        <v>13.46977810635953</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>12.14024080681878</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>23.71921890789388</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>12.3970444150518</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>20.93637084895244</v>
+        <v>16.97944479848389</v>
       </c>
       <c r="C94">
-        <v>19.12997227737295</v>
+        <v>13.42610404751754</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>12.07648501121135</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>23.65117435600249</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>12.37384654292486</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>20.91524158870377</v>
+        <v>16.92242571381965</v>
       </c>
       <c r="C95">
-        <v>19.05891984502424</v>
+        <v>13.3824824359539</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>12.01281196884362</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>23.58317355062788</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>12.35064556509527</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>20.89402772351196</v>
+        <v>16.86541943303295</v>
       </c>
       <c r="C96">
-        <v>18.98798267044519</v>
+        <v>13.33891600526133</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>11.94922484449434</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>23.51522142156657</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>12.32744421087249</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>20.87273977993109</v>
+        <v>16.80842995851404</v>
       </c>
       <c r="C97">
-        <v>18.91716175617977</v>
+        <v>13.29540712922672</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>11.88572634337699</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>23.44732207083712</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>12.30424488502439</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>20.85138700301648</v>
+        <v>16.75146076730217</v>
       </c>
       <c r="C98">
-        <v>18.84645795318932</v>
+        <v>13.25195788049852</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>11.82231880675129</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>23.37947894903767</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>12.28104969150337</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>20.82997752068485</v>
+        <v>16.69451489026768</v>
       </c>
       <c r="C99">
-        <v>18.77587198980395</v>
+        <v>13.20857005918269</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>11.75900427283066</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>23.31169498485106</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>12.25786050725976</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>20.8085184874447</v>
+        <v>16.63759490285107</v>
       </c>
       <c r="C100">
-        <v>18.70540449470491</v>
+        <v>13.16524524063843</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>11.69578452064624</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>23.2439726645124</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>12.23467892578202</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>20.78701620806993</v>
+        <v>16.58070311851527</v>
       </c>
       <c r="C101">
-        <v>18.63505601548975</v>
+        <v>13.12198480796113</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>11.63266111138619</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>23.17631409047912</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>12.21150639684544</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>20.76547624530275</v>
+        <v>16.52384153141983</v>
       </c>
       <c r="C102">
-        <v>18.56482703384247</v>
+        <v>13.07878995755833</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>11.56963542872992</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>23.1087210280208</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>12.18834418087238</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>20.74390351277651</v>
+        <v>16.46701193774759</v>
       </c>
       <c r="C103">
-        <v>18.49471797750213</v>
+        <v>13.03566177845791</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>11.50670871029034</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>23.04119497953024</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>12.16519340988485</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>20.72230235633693</v>
+        <v>16.41021591244652</v>
       </c>
       <c r="C104">
-        <v>18.42472922994506</v>
+        <v>12.99260122796387</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>11.44388208288812</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>22.97373723810761</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>12.14205509110869</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>20.70067662405687</v>
+        <v>16.35345486638733</v>
       </c>
       <c r="C105">
-        <v>18.35486113840708</v>
+        <v>12.94960917142595</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>11.38115656749497</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>22.90634890734778</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>12.1189301302104</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>20.6790297276272</v>
+        <v>16.29673004137562</v>
       </c>
       <c r="C106">
-        <v>18.28511402026722</v>
+        <v>12.90668637255726</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>11.31853312054775</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>22.83903096551693</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>12.09581932273196</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>20.65736469539837</v>
+        <v>16.24004254204696</v>
       </c>
       <c r="C107">
-        <v>18.21548816828139</v>
+        <v>12.86383351380196</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>11.25601262003807</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>22.77178423196487</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>12.07272337529206</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>20.63568421888019</v>
+        <v>16.18339335787419</v>
       </c>
       <c r="C108">
-        <v>18.14598385489927</v>
+        <v>12.82105120625947</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>11.19359589227255</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>22.70460945815566</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>12.04964291571445</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>20.61399069304509</v>
+        <v>16.12678337998524</v>
       </c>
       <c r="C109">
-        <v>18.07660133575385</v>
+        <v>12.77833999899899</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>11.1312837172441</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>22.63750726614402</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>12.02657850216516</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>20.59228625168483</v>
+        <v>16.07021340668034</v>
       </c>
       <c r="C110">
-        <v>18.00734085255598</v>
+        <v>12.7357003884802</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>11.06907682743749</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>22.57047822236599</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>12.00353063277839</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>20.57057279817015</v>
+        <v>16.01368418539977</v>
       </c>
       <c r="C111">
-        <v>17.9382026354755</v>
+        <v>12.6931328300702</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>11.0069759301117</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>22.50352281230968</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>11.9804997567084</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>20.54885203242534</v>
+        <v>15.95719637561272</v>
       </c>
       <c r="C112">
-        <v>17.86918690509064</v>
+        <v>12.65063772705762</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>10.94498170081653</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>22.43664146996074</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>11.95748626649687</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>20.52712547450912</v>
+        <v>15.90075059405532</v>
       </c>
       <c r="C113">
-        <v>17.80029387402375</v>
+        <v>12.60821546621548</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>10.8830947974109</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>22.36983458394325</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>11.93449053323304</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>20.50539448527447</v>
+        <v>15.84434744346083</v>
       </c>
       <c r="C114">
-        <v>17.73152374828254</v>
+        <v>12.56586638437781</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>10.82131585922729</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>22.30310249961712</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>11.91151287860227</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>20.48366028452745</v>
+        <v>15.78798740668605</v>
       </c>
       <c r="C115">
-        <v>17.66287672837566</v>
+        <v>12.52359080273039</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>10.75964551428104</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>22.23644553466432</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>11.88855358509005</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>20.46192396691399</v>
+        <v>15.73167101972163</v>
       </c>
       <c r="C116">
-        <v>17.59435301025254</v>
+        <v>12.48138901389593</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>10.69808437772632</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>22.16986397196097</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>11.86561294862553</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>20.44018651596327</v>
+        <v>15.67539872630098</v>
       </c>
       <c r="C117">
-        <v>17.52595278607626</v>
+        <v>12.43926128207545</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>10.63663305609726</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>22.10335807344412</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>11.84269117100739</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>20.41844881633876</v>
+        <v>15.61917095316142</v>
       </c>
       <c r="C118">
-        <v>17.45767624487506</v>
+        <v>12.39720785960814</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>10.57529214871952</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>22.0369280762426</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>11.81978849377975</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>20.39671166468844</v>
+        <v>15.56298811772621</v>
       </c>
       <c r="C119">
-        <v>17.38952357309081</v>
+        <v>12.35522897242044</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>10.51406224797136</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>21.97057419863545</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>11.7969051175218</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>20.37497577936837</v>
+        <v>15.50685058881258</v>
       </c>
       <c r="C120">
-        <v>17.32149495503419</v>
+        <v>12.31332483612616</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>10.45294394300023</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>21.90429664350098</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>11.77404120066694</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>20.35324180891116</v>
+        <v>15.45075873440034</v>
       </c>
       <c r="C121">
-        <v>17.25359057327167</v>
+        <v>12.27149564855985</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>10.39193781931941</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>21.83809559855999</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>11.75119691487993</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>20.33151033933564</v>
+        <v>15.3947128984687</v>
       </c>
       <c r="C122">
-        <v>17.1858106089508</v>
+        <v>12.22974159777151</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>10.33104446118222</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>21.77197124057475</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>11.72837239938741</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>20.3097819007049</v>
+        <v>15.33871341312437</v>
       </c>
       <c r="C123">
-        <v>17.11815524206866</v>
+        <v>12.18806285742496</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>10.27026445171905</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>21.70592373545849</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>11.7055677834465</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>20.28805697306647</v>
+        <v>15.28276059918664</v>
       </c>
       <c r="C124">
-        <v>17.05062465171083</v>
+        <v>12.14645959465648</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>10.20959837442394</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>21.63995324067986</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>11.6827831857649</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>20.26633599171433</v>
+        <v>15.22685476354903</v>
       </c>
       <c r="C125">
-        <v>16.98321901625377</v>
+        <v>12.10493196468002</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>10.14904681299557</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>21.5740599059419</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>11.6600187134359</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>20.24461935178633</v>
+        <v>15.17099621257136</v>
       </c>
       <c r="C126">
-        <v>16.91593851352435</v>
+        <v>12.06348011535468</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>10.08861035227744</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>21.5082438735709</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>11.63727446595755</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>20.22290741232311</v>
+        <v>15.11518523359683</v>
       </c>
       <c r="C127">
-        <v>16.84878332093542</v>
+        <v>12.02210418736871</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>10.02828957868383</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>21.44250528082706</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>11.61455053289021</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>20.20120049990595</v>
+        <v>15.05942211494655</v>
       </c>
       <c r="C128">
-        <v>16.781753615607</v>
+        <v>11.9808043126384</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>9.968085080317293</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>21.37684425899639</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>11.5918469971251</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>20.17949891191961</v>
+        <v>15.00370713764966</v>
       </c>
       <c r="C129">
-        <v>16.71484957447178</v>
+        <v>11.93958061859806</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>9.90799744784912</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>21.31126093541073</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>11.56916393859185</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>20.15780291945764</v>
+        <v>14.94804057079765</v>
       </c>
       <c r="C130">
-        <v>16.64807137436378</v>
+        <v>11.89843322516907</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>9.848027274448535</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>21.24575543333124</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>11.54650142266237</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>20.13611276990222</v>
+        <v>14.89242268547296</v>
       </c>
       <c r="C131">
-        <v>16.58141919209179</v>
+        <v>11.8573622481541</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>9.78817515642398</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>21.18032787281831</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>11.52385951749086</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>20.11442868922571</v>
+        <v>14.83685374367135</v>
       </c>
       <c r="C132">
-        <v>16.51489320450097</v>
+        <v>11.81636779777927</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>9.728441693241237</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>21.11497837118885</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>11.50123828273764</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>20.09275088405431</v>
+        <v>14.78133400556548</v>
       </c>
       <c r="C133">
-        <v>16.44849358852549</v>
+        <v>11.77544998058283</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>9.668827487955102</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>21.04970704306129</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>11.4786377707491</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>20.07107954351895</v>
+        <v>14.72586372778633</v>
       </c>
       <c r="C134">
-        <v>16.38222052123422</v>
+        <v>11.73460889847231</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>9.609333147212578</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>20.98451400125512</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>11.45605803327196</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>20.04941484091265</v>
+        <v>14.67044316439596</v>
       </c>
       <c r="C135">
-        <v>16.31607417987033</v>
+        <v>11.69384465032607</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>9.549959281516918</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>20.91939935642211</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>11.43349911573384</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>20.027756935175</v>
+        <v>14.61507256775607</v>
       </c>
       <c r="C136">
-        <v>16.25005474188377</v>
+        <v>11.65315733131734</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>9.490706505384495</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>20.8543632178515</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>11.41096106077317</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>20.00610597222455</v>
+        <v>14.55975218744287</v>
       </c>
       <c r="C137">
-        <v>16.18416238495873</v>
+        <v>11.6125470334815</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>9.43157543739923</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>20.78940569334492</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>11.38844390779106</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>19.98446208615754</v>
+        <v>14.5044822732069</v>
       </c>
       <c r="C138">
-        <v>16.11839728703674</v>
+        <v>11.57201384629787</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>9.372566700479034</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>20.72452688961419</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>11.36594769332837</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>19.96282540032666</v>
+        <v>14.44926307288258</v>
       </c>
       <c r="C139">
-        <v>16.05275962633615</v>
+        <v>11.53155785606264</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>9.313680921868231</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>20.65972691244053</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>11.34347245166409</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>19.94119602831225</v>
+        <v>14.3940948326947</v>
       </c>
       <c r="C140">
-        <v>15.98724958136856</v>
+        <v>11.49117914712253</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>9.254918733354094</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>20.59500586674773</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>11.32101821427305</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>19.91957407479719</v>
+        <v>14.33897779985127</v>
       </c>
       <c r="C141">
-        <v>15.92186733095226</v>
+        <v>11.45087780108944</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>9.196280771279742</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>20.53036385690516</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>11.29858501087968</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>19.8979596363563</v>
+        <v>14.2839122189455</v>
       </c>
       <c r="C142">
-        <v>15.85661305422315</v>
+        <v>11.41065389780957</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>9.137767676699211</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>20.46580098666204</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>11.27617286982307</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.87635280216929</v>
+        <v>14.22889833578072</v>
       </c>
       <c r="C143">
-        <v>15.79148693064356</v>
+        <v>11.37050751489648</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>9.079380095403014</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>20.40131735941968</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>11.25378181609863</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>19.85475365466526</v>
+        <v>14.17393639537867</v>
       </c>
       <c r="C144">
-        <v>15.72648914000913</v>
+        <v>11.33043872838443</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>9.02111867801475</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>20.336913078214</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>11.23141187471397</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>19.83316227010562</v>
+        <v>14.1190266426019</v>
       </c>
       <c r="C145">
-        <v>15.66161986245411</v>
+        <v>11.29044761244191</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>8.962984080063366</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>20.27258824585767</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>11.20906306839127</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>19.81157871911192</v>
+        <v>14.06416932274989</v>
       </c>
       <c r="C146">
-        <v>15.59687927845536</v>
+        <v>11.25053423977251</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>8.904976962015938</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>20.20834296502061</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>11.18673541812903</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>19.79000306714412</v>
+        <v>14.00936468124736</v>
       </c>
       <c r="C147">
-        <v>15.53226756883481</v>
+        <v>11.21069868158699</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>8.84709798937714</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>20.14417733821779</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>11.16442894431177</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>19.76843537493451</v>
+        <v>13.95461296411293</v>
       </c>
       <c r="C148">
-        <v>15.46778491476099</v>
+        <v>11.170941007644</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>8.789347832683523</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>20.08009146806259</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>11.14214366558931</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>19.74687569888157</v>
+        <v>13.8999144177773</v>
       </c>
       <c r="C149">
-        <v>15.40343149774948</v>
+        <v>11.13126128653563</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>8.731727167659082</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>20.01608545714086</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>11.11987959985777</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>19.72532409140792</v>
+        <v>13.84526928934728</v>
       </c>
       <c r="C150">
-        <v>15.3392074996625</v>
+        <v>11.09165958546783</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>8.674236675155004</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>19.95215940806429</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>11.09763676395307</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>19.70378060128571</v>
+        <v>13.79067782685988</v>
       </c>
       <c r="C151">
-        <v>15.27511310270773</v>
+        <v>11.05213597066068</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>8.616877041217013</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>19.88831342385963</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>11.07541517378557</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>19.68224527393281</v>
+        <v>13.73614027870918</v>
       </c>
       <c r="C152">
-        <v>15.21114848943643</v>
+        <v>11.01269050710669</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>8.55964895728842</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>19.82454760734376</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>11.05321484461612</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>19.66071815168269</v>
+        <v>13.68165689464454</v>
       </c>
       <c r="C153">
-        <v>15.14731384274081</v>
+        <v>10.97332325890055</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>8.502553119907958</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>19.76086206184355</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>11.03103579076675</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>19.63919927403028</v>
+        <v>13.62722792505758</v>
       </c>
       <c r="C154">
-        <v>15.08360934585101</v>
+        <v>10.93403428907358</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>8.445590231090243</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>19.69725689094016</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>11.00887802603689</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>19.61768867785645</v>
+        <v>13.57285362136036</v>
       </c>
       <c r="C155">
-        <v>15.02003518233138</v>
+        <v>10.89482365982573</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>8.388760998246315</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>19.6337321981995</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>10.98674156367274</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>19.59618639763285</v>
+        <v>13.51853423614257</v>
       </c>
       <c r="C156">
-        <v>14.9565915360764</v>
+        <v>10.85569143244684</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>8.332066133993537</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>19.57028808780019</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>10.96462641602634</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>19.57469246560915</v>
+        <v>13.46427002294788</v>
       </c>
       <c r="C157">
-        <v>14.89327859130615</v>
+        <v>10.81663766742009</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>8.27550635656892</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>19.50692466410277</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>10.942532595278</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>19.55320691198428</v>
+        <v>13.41006123661111</v>
       </c>
       <c r="C158">
-        <v>14.83009653256131</v>
+        <v>10.77766242446425</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>8.219082389589751</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>19.44364203179054</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>10.92046011291755</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>19.53172976506312</v>
+        <v>13.35590813312114</v>
       </c>
       <c r="C159">
-        <v>14.76704554469785</v>
+        <v>10.73876576251419</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>8.16279496210365</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>19.38044029600493</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>10.89840897995588</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>19.51026105139997</v>
+        <v>13.30181096975891</v>
       </c>
       <c r="C160">
-        <v>14.70412581288138</v>
+        <v>10.69994773984656</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>8.106644808746763</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>19.3173195622019</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>10.87637920711173</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>19.48880079593021</v>
+        <v>13.24777000513232</v>
       </c>
       <c r="C161">
-        <v>14.64133752258118</v>
+        <v>10.6612084139969</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>8.05063266962574</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>19.25427993630547</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>10.85437080457629</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>19.46734902209087</v>
+        <v>13.19378549913535</v>
       </c>
       <c r="C162">
-        <v>14.57868085956388</v>
+        <v>10.62254784190679</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>7.99475929041593</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>19.19132152465599</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>10.83238378229125</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>19.4459057519314</v>
+        <v>13.13985771314669</v>
       </c>
       <c r="C163">
-        <v>14.51615600988692</v>
+        <v>10.58396607983682</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>7.939025422389195</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>19.1284444340048</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>10.81041814983829</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>19.42447100621542</v>
+        <v>13.08598690986531</v>
       </c>
       <c r="C164">
-        <v>14.45376315989173</v>
+        <v>10.5454631834915</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>7.883431822334379</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>19.06564877162227</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>10.78847391648213</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>19.40304480451426</v>
+        <v>13.03217335349727</v>
       </c>
       <c r="C165">
-        <v>14.3915024961966</v>
+        <v>10.50703920796076</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>7.827979252720487</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>19.00293464519781</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>10.76655109127671</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>19.38162716529295</v>
+        <v>12.97841730973652</v>
       </c>
       <c r="C166">
-        <v>14.32937420568945</v>
+        <v>10.46869420779603</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>7.772668481609576</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>18.94030216291012</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>10.74464968294627</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>19.36021810598943</v>
+        <v>12.92471904572425</v>
       </c>
       <c r="C167">
-        <v>14.26737847552014</v>
+        <v>10.43042823700003</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>7.717500282642977</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>18.87775143346701</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>10.72276970005055</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>19.33881764308736</v>
+        <v>12.87107883020994</v>
       </c>
       <c r="C168">
-        <v>14.20551549309285</v>
+        <v>10.3922413490475</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>7.662475435182114</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>18.81528256600447</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>10.70091115093486</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>19.31742579218117</v>
+        <v>12.8174969334545</v>
       </c>
       <c r="C169">
-        <v>14.14378544605795</v>
+        <v>10.35413359691829</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>7.607594724180033</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>18.75289567022865</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>10.6790740436802</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.29604256804288</v>
+        <v>12.76397362733697</v>
       </c>
       <c r="C170">
-        <v>14.0821885223039</v>
+        <v>10.31610503307864</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>7.552858940245518</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>18.69059085634162</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>10.65725838627482</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.27466798467837</v>
+        <v>12.71050918534822</v>
       </c>
       <c r="C171">
-        <v>14.02072490994879</v>
+        <v>10.27815570953738</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>7.498268879697933</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>18.62836823505364</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>10.63546418648274</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.25330205537514</v>
+        <v>12.65710388260533</v>
       </c>
       <c r="C172">
-        <v>13.95939479733177</v>
+        <v>10.24028567780988</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>7.443825344438449</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>18.56622791763233</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>10.61369145192358</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.23194479276327</v>
+        <v>12.60375799591296</v>
       </c>
       <c r="C173">
-        <v>13.89819837300427</v>
+        <v>10.20249498897778</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>7.389529142104769</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>18.50417001586902</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>10.59194019010133</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.21059620884475</v>
+        <v>12.55047180372962</v>
       </c>
       <c r="C174">
-        <v>13.837135825721</v>
+        <v>10.164783693633</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>7.335381085988578</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>18.44219464210752</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>10.57021040834995</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>19.18925631504216</v>
+        <v>12.49724558624831</v>
       </c>
       <c r="C175">
-        <v>13.77620734443081</v>
+        <v>10.127151841972</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>7.281381994991848</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>18.38030190924975</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>10.54850211392226</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.16792512224016</v>
+        <v>12.44407962537811</v>
       </c>
       <c r="C176">
-        <v>13.71541311826731</v>
+        <v>10.08959948376897</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>7.227532693751598</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>18.31849193074155</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>10.5268153139473</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>19.14660264081734</v>
+        <v>12.39097420476184</v>
       </c>
       <c r="C177">
-        <v>13.65475333653941</v>
+        <v>10.05212666832366</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>7.173834012517849</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>18.25676482061083</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>10.50515001545051</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>19.12528888068083</v>
+        <v>12.33792960983169</v>
       </c>
       <c r="C178">
-        <v>13.59422818872153</v>
+        <v>10.01473344453888</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>7.1202867871707</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>18.19512069344652</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>10.48350622538951</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>19.10398385130037</v>
+        <v>12.28494612777565</v>
       </c>
       <c r="C179">
-        <v>13.53383786444368</v>
+        <v>9.977419860973921</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>7.066891859289732</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>18.13355966440545</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>10.46188395060881</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>19.08268756173306</v>
+        <v>12.2320240476061</v>
       </c>
       <c r="C180">
-        <v>13.47358255348165</v>
+        <v>9.940185965748686</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>7.013650075997022</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>18.07208184923805</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>10.44028319790786</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>19.06140002064989</v>
+        <v>12.17916366014647</v>
       </c>
       <c r="C181">
-        <v>13.41346244574637</v>
+        <v>9.903031806480982</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>6.960562290078689</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>18.01068736426166</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>10.41870397401026</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>19.04012123636341</v>
+        <v>12.12636525805394</v>
       </c>
       <c r="C182">
-        <v>13.3534777312742</v>
+        <v>9.865957430556087</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>6.907629359927744</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>17.94937632638985</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>10.39714628556302</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>19.01885121684771</v>
+        <v>12.07362913585037</v>
       </c>
       <c r="C183">
-        <v>13.29362860021569</v>
+        <v>9.828962884937008</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>6.854852149422648</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>17.88814885312768</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>10.37561013918209</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.99758996976037</v>
+        <v>12.0209555899181</v>
       </c>
       <c r="C184">
-        <v>13.23391524282494</v>
+        <v>9.792048216068679</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>6.802231528094677</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>17.82700506256675</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>10.35409554141402</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.97633750246415</v>
+        <v>11.96834491853851</v>
       </c>
       <c r="C185">
-        <v>13.17433784944917</v>
+        <v>9.755213470145994</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>6.749768370959838</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>17.76594507340577</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>10.3326024987685</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.95509382204415</v>
+        <v>11.91579742188719</v>
       </c>
       <c r="C186">
-        <v>13.11489661051669</v>
+        <v>9.718458692959036</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>6.697463558492584</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>17.70496900494111</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>10.31113101771947</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>18.9338589353245</v>
+        <v>11.86331340206059</v>
       </c>
       <c r="C187">
-        <v>13.05559171652661</v>
+        <v>9.681783929883844</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>6.645317976727413</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>17.64407697707374</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>10.28968110469268</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>18.91263284888619</v>
+        <v>11.81089316310607</v>
       </c>
       <c r="C188">
-        <v>12.99642335803679</v>
+        <v>9.645189225913956</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>6.59333251705368</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>17.58326911031737</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>10.2682527660963</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>18.89141556908091</v>
+        <v>11.75853701102744</v>
       </c>
       <c r="C189">
-        <v>12.93739172565234</v>
+        <v>9.608674625705925</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>6.541508076296685</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>17.52254552579112</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>10.2468460082976</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.87020710204461</v>
+        <v>11.70624525374565</v>
       </c>
       <c r="C190">
-        <v>12.87849701001435</v>
+        <v>9.572240173525335</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>6.489845556695442</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>17.4619063452343</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>10.22546083764194</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>18.84900745371188</v>
+        <v>11.6540182012204</v>
       </c>
       <c r="C191">
-        <v>12.81973940178709</v>
+        <v>9.535885913239449</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>6.438345865690747</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>17.40135169100241</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>10.20409726046904</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>18.82781662982765</v>
+        <v>11.60185616540779</v>
       </c>
       <c r="C192">
-        <v>12.76111909164672</v>
+        <v>9.499611888378666</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>6.387009916132278</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>17.34088168606728</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>10.18275528310555</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>18.80663463595794</v>
+        <v>11.54975946027039</v>
       </c>
       <c r="C193">
-        <v>12.70263627026841</v>
+        <v>9.463418142095394</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>6.335838626064131</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>17.280496454029</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>10.16143491182309</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>18.78546147750159</v>
+        <v>11.49772840173632</v>
       </c>
       <c r="C194">
-        <v>12.64429112831391</v>
+        <v>9.427304717141832</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>6.284832918639481</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>17.22019611910934</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>10.14013615291027</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>18.76429715970004</v>
+        <v>11.44576330786218</v>
       </c>
       <c r="C195">
-        <v>12.58608385641953</v>
+        <v>9.391271655926081</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>6.233993722264646</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>17.15998080615818</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>10.11885901267174</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>18.74314168764594</v>
+        <v>11.39386449873845</v>
       </c>
       <c r="C196">
-        <v>12.52801464518236</v>
+        <v>9.355319000486665</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>6.183321970330886</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>17.09985064065798</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>10.0976034974053</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>18.72199506629271</v>
+        <v>11.34203229650485</v>
       </c>
       <c r="C197">
-        <v>12.47008368514817</v>
+        <v>9.319446792471908</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>6.13281860124486</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>17.03980574871968</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>10.07636961333073</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>18.70085730046283</v>
+        <v>11.29026702537018</v>
       </c>
       <c r="C198">
-        <v>12.41229116679777</v>
+        <v>9.283655073147219</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>6.082484558450741</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>16.97984625709259</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>10.05515736672964</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>18.67972839485476</v>
+        <v>11.23856901168486</v>
       </c>
       <c r="C199">
-        <v>12.35463728053354</v>
+        <v>9.247943883432326</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>6.032320790116174</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>16.91997229316176</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>10.03396676389627</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>18.65860835405079</v>
+        <v>11.18693858389783</v>
       </c>
       <c r="C200">
-        <v>12.29712221666666</v>
+        <v>9.212313263860175</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>5.982328249358789</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>16.86018398494996</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>10.01279781112232</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>18.63749718252405</v>
+        <v>11.13537607256336</v>
       </c>
       <c r="C201">
-        <v>12.23974616540241</v>
+        <v>9.176763254555889</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>5.932507893975489</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>16.80048146112359</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>9.991650514633314</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>18.6163948846441</v>
+        <v>11.08388181038981</v>
       </c>
       <c r="C202">
-        <v>12.18250931682713</v>
+        <v>9.141293895301823</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>5.882860686191886</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>16.74086485098807</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>9.970524880729503</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>18.59530146468336</v>
+        <v>11.03245613224426</v>
       </c>
       <c r="C203">
-        <v>12.12541186089381</v>
+        <v>9.10590522548997</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>5.833387593147287</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>16.68133428449633</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>9.949420915710688</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>18.57421692682313</v>
+        <v>10.98109937515786</v>
       </c>
       <c r="C204">
-        <v>12.06845398740768</v>
+        <v>9.070597284112193</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>5.784089586462418</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>16.62188989225049</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>9.928338625882615</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>18.55314127515805</v>
+        <v>10.92981187832964</v>
       </c>
       <c r="C205">
-        <v>12.0116358860125</v>
+        <v>9.035370109787106</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>5.734967642143738</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>16.56253180550261</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>9.907278017522733</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>18.5320745137015</v>
+        <v>10.8785939831691</v>
       </c>
       <c r="C206">
-        <v>11.95495774617511</v>
+        <v>9.000223740749576</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>5.686022739596139</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>16.50326015614408</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>9.886239096962401</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>18.51101664639062</v>
+        <v>10.82744603328973</v>
       </c>
       <c r="C207">
-        <v>11.89841975717138</v>
+        <v>8.965158214838095</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>5.637255863732717</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>16.44407507672781</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>9.865221870534082</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>18.48996767709004</v>
+        <v>10.77636837452243</v>
       </c>
       <c r="C208">
-        <v>11.84202210807097</v>
+        <v>8.930173569493695</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>5.58866800327811</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>16.3849767004651</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>9.844226344584124</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>18.46892760959633</v>
+        <v>10.72536135492317</v>
       </c>
       <c r="C209">
-        <v>11.78576498772199</v>
+        <v>8.895269841775256</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>5.540260151064094</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>16.32596516122292</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>9.823252525459328</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>18.44789644764225</v>
+        <v>10.67442532481104</v>
       </c>
       <c r="C210">
-        <v>11.72964858473643</v>
+        <v>8.860447068341418</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>5.492033301930608</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>16.26704059350818</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>9.802300419540749</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>18.42687419489983</v>
+        <v>10.62356063676138</v>
       </c>
       <c r="C211">
-        <v>11.67367308747378</v>
+        <v>8.825705285437275</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>5.443988456843262</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>16.2082031324993</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>9.78137003322191</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>18.40586085498415</v>
+        <v>10.57276764560995</v>
       </c>
       <c r="C212">
-        <v>11.61783868402604</v>
+        <v>8.79104452892229</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>5.396126619747336</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>16.1494529140407</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>9.760461372914362</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>18.38485643145682</v>
+        <v>10.52204670848054</v>
       </c>
       <c r="C213">
-        <v>11.5621455622017</v>
+        <v>8.756464834247183</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>5.34844879824866</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>16.09079007463651</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>9.739574445034648</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>18.36386092782865</v>
+        <v>10.47139818480532</v>
       </c>
       <c r="C214">
-        <v>11.50659390950938</v>
+        <v>8.721966236444542</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>5.300956001459761</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>16.03221475143888</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>9.718709256038085</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>18.34287434756278</v>
+        <v>10.42082243632391</v>
       </c>
       <c r="C215">
-        <v>11.45118391314236</v>
+        <v>8.687548770140632</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>5.253649243752465</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>15.97372708227435</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>9.697865812395811</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>18.32189669407761</v>
+        <v>10.37031982707755</v>
       </c>
       <c r="C216">
-        <v>11.39591575996138</v>
+        <v>8.653212469551811</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>5.206529542219161</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>15.91532720564038</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>9.677044120598625</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>18.3009279707491</v>
+        <v>10.31989072346385</v>
       </c>
       <c r="C217">
-        <v>11.34078963647862</v>
+        <v>8.618957368471513</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>5.159597916906249</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>15.85701526069895</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>9.656244187143962</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>18.27996818091334</v>
+        <v>10.26953549422378</v>
       </c>
       <c r="C218">
-        <v>11.28580572884088</v>
+        <v>8.584783500265333</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>5.112855389297502</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>15.79879138727088</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>9.635466018573322</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>18.25901732786907</v>
+        <v>10.21925451045476</v>
       </c>
       <c r="C219">
-        <v>11.2309642228122</v>
+        <v>8.550690897885204</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>5.066302984628732</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>15.74065572585218</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>9.614709621444996</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>18.23807541487961</v>
+        <v>10.16904814561091</v>
       </c>
       <c r="C220">
-        <v>11.17626530375758</v>
+        <v>8.516679593852105</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>5.019941730733851</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>15.68260841761313</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>9.593975002338247</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>18.21714244517504</v>
+        <v>10.11891677554885</v>
       </c>
       <c r="C221">
-        <v>11.12170915662479</v>
+        <v>8.482749620245279</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>4.973772657619373</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>15.62464960439408</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>9.573262167846169</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>18.19621842195432</v>
+        <v>10.06886077851467</v>
       </c>
       <c r="C222">
-        <v>11.06729596592743</v>
+        <v>8.44890100871989</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>4.927796796403022</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>15.56677942870167</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>9.552571124602016</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>18.17530334838695</v>
+        <v>10.01888053515349</v>
       </c>
       <c r="C223">
-        <v>11.01302591572726</v>
+        <v>8.415133790489572</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>4.882015180649731</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>15.50899803372022</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>9.531901879259028</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>18.15439722761453</v>
+        <v>9.968976428524197</v>
       </c>
       <c r="C224">
-        <v>10.95889918961587</v>
+        <v>8.38144799632097</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>4.836428846183052</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>15.45130556331197</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>9.511254438493692</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>18.13350006275353</v>
+        <v>9.919148844128362</v>
       </c>
       <c r="C225">
-        <v>10.9049159706974</v>
+        <v>8.347843656535535</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>4.791038830176165</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>15.39370216201397</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>9.490628809004026</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>18.11261185689487</v>
+        <v>9.869398169904752</v>
       </c>
       <c r="C226">
-        <v>10.85107644156962</v>
+        <v>8.314320801008027</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>4.745846170225943</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>15.33618797503253</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>9.470024997521975</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>18.09173261310825</v>
+        <v>9.819724796226154</v>
       </c>
       <c r="C227">
-        <v>10.7973807843058</v>
+        <v>8.280879459156743</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>4.70085190510822</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>15.27876314825548</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>9.449443010803616</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>18.07086233444108</v>
+        <v>9.770129115940797</v>
       </c>
       <c r="C228">
-        <v>10.74382918043645</v>
+        <v>8.247519659937646</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>4.656057075510573</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>15.22142782825283</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>9.428882855630375</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>18.05000102392082</v>
+        <v>9.720611524374</v>
       </c>
       <c r="C229">
-        <v>10.69042181092978</v>
+        <v>8.214241431851448</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>4.611462722465154</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>15.1641821622724</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>9.408344538809473</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>18.02914868455708</v>
+        <v>9.671172419332562</v>
       </c>
       <c r="C230">
-        <v>10.63715885617369</v>
+        <v>8.181044802931606</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>4.567069886690915</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>15.10702629823313</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>9.387828067179793</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>18.00830531934045</v>
+        <v>9.62181220109122</v>
       </c>
       <c r="C231">
-        <v>10.58404049595584</v>
+        <v>8.147929800735076</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>4.522879608613199</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>15.0499603847385</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>9.367333447607102</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>17.98747093124683</v>
+        <v>9.572531272461253</v>
       </c>
       <c r="C232">
-        <v>10.53106690944462</v>
+        <v>8.114896452351706</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>4.478892930144867</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>14.9929845710777</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>9.346860686983369</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>17.96664552323534</v>
+        <v>9.52333003876036</v>
       </c>
       <c r="C233">
-        <v>10.47823827517005</v>
+        <v>8.081944784391997</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>4.435110892411174</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>14.93609900721968</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>9.326409792228525</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>17.94582909825222</v>
+        <v>9.474208907823558</v>
       </c>
       <c r="C234">
-        <v>10.42555477100326</v>
+        <v>8.049074822981389</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>4.39153453544048</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>14.8793038438068</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>9.305980770294726</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>17.92502165922955</v>
+        <v>9.425168290004862</v>
       </c>
       <c r="C235">
-        <v>10.37301657413749</v>
+        <v>8.016286593758682</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>4.348164897382163</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>14.82259923216752</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>9.285573628162256</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>17.90422320908799</v>
+        <v>9.376208598229487</v>
       </c>
       <c r="C236">
-        <v>10.3206238610675</v>
+        <v>7.983580121875102</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>4.305003017256029</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>14.76598532431827</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>9.265188372837871</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>17.88343375073653</v>
+        <v>9.32733024796886</v>
       </c>
       <c r="C237">
-        <v>10.26837680756849</v>
+        <v>7.950955431985348</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>4.2620499320801</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>14.70946227295672</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>9.244825011358213</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>17.86265328707387</v>
+        <v>9.278533657236961</v>
       </c>
       <c r="C238">
-        <v>10.21627558867831</v>
+        <v>7.918412548241458</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>4.219306676887566</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>14.65303023145587</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>9.224483550792412</v>
       </c>
     </row>
   </sheetData>
